--- a/docs/GANTT.xlsx
+++ b/docs/GANTT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4BD561-3A1A-4A3E-AB1D-2CCE4DCCB7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC63EFD-9999-4D11-90B2-91DCE667510E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2384,7 +2384,7 @@
   <dimension ref="A1:CG70"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="8" topLeftCell="I9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="8" topLeftCell="I25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="D8" sqref="D8"/>

--- a/docs/GANTT.xlsx
+++ b/docs/GANTT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC63EFD-9999-4D11-90B2-91DCE667510E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50AE4E6-F777-4702-A644-83A495C462F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1722,6 +1722,21 @@
     <xf numFmtId="172" fontId="35" fillId="8" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="171" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1757,21 +1772,6 @@
     </xf>
     <xf numFmtId="170" fontId="8" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2384,10 +2384,10 @@
   <dimension ref="A1:CG70"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="8" topLeftCell="I25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="8" topLeftCell="I9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2408,13 +2408,13 @@
       <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
       <c r="H1" s="1"/>
       <c r="I1" s="35"/>
     </row>
@@ -2434,136 +2434,136 @@
       <c r="B3" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="139"/>
-      <c r="E3" s="145">
+      <c r="D3" s="144"/>
+      <c r="E3" s="150">
         <v>45850</v>
       </c>
-      <c r="F3" s="145"/>
+      <c r="F3" s="150"/>
     </row>
     <row r="4" spans="1:85" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="141"/>
+      <c r="D4" s="146"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="142">
+      <c r="I4" s="147">
         <f>I5</f>
         <v>45845</v>
       </c>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="142">
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="147">
         <f>P5</f>
         <v>45852</v>
       </c>
-      <c r="Q4" s="143"/>
-      <c r="R4" s="143"/>
-      <c r="S4" s="143"/>
-      <c r="T4" s="143"/>
-      <c r="U4" s="143"/>
-      <c r="V4" s="144"/>
-      <c r="W4" s="142">
+      <c r="Q4" s="148"/>
+      <c r="R4" s="148"/>
+      <c r="S4" s="148"/>
+      <c r="T4" s="148"/>
+      <c r="U4" s="148"/>
+      <c r="V4" s="149"/>
+      <c r="W4" s="147">
         <f>W5</f>
         <v>45859</v>
       </c>
-      <c r="X4" s="143"/>
-      <c r="Y4" s="143"/>
-      <c r="Z4" s="143"/>
-      <c r="AA4" s="143"/>
-      <c r="AB4" s="143"/>
-      <c r="AC4" s="144"/>
-      <c r="AD4" s="142">
+      <c r="X4" s="148"/>
+      <c r="Y4" s="148"/>
+      <c r="Z4" s="148"/>
+      <c r="AA4" s="148"/>
+      <c r="AB4" s="148"/>
+      <c r="AC4" s="149"/>
+      <c r="AD4" s="147">
         <f>AD5</f>
         <v>45866</v>
       </c>
-      <c r="AE4" s="143"/>
-      <c r="AF4" s="143"/>
-      <c r="AG4" s="143"/>
-      <c r="AH4" s="143"/>
-      <c r="AI4" s="143"/>
-      <c r="AJ4" s="144"/>
-      <c r="AK4" s="142">
+      <c r="AE4" s="148"/>
+      <c r="AF4" s="148"/>
+      <c r="AG4" s="148"/>
+      <c r="AH4" s="148"/>
+      <c r="AI4" s="148"/>
+      <c r="AJ4" s="149"/>
+      <c r="AK4" s="147">
         <f>AK5</f>
         <v>45873</v>
       </c>
-      <c r="AL4" s="143"/>
-      <c r="AM4" s="143"/>
-      <c r="AN4" s="143"/>
-      <c r="AO4" s="143"/>
-      <c r="AP4" s="143"/>
-      <c r="AQ4" s="144"/>
-      <c r="AR4" s="142">
+      <c r="AL4" s="148"/>
+      <c r="AM4" s="148"/>
+      <c r="AN4" s="148"/>
+      <c r="AO4" s="148"/>
+      <c r="AP4" s="148"/>
+      <c r="AQ4" s="149"/>
+      <c r="AR4" s="147">
         <f>AR5</f>
         <v>45880</v>
       </c>
-      <c r="AS4" s="143"/>
-      <c r="AT4" s="143"/>
-      <c r="AU4" s="143"/>
-      <c r="AV4" s="143"/>
-      <c r="AW4" s="143"/>
-      <c r="AX4" s="144"/>
-      <c r="AY4" s="142">
+      <c r="AS4" s="148"/>
+      <c r="AT4" s="148"/>
+      <c r="AU4" s="148"/>
+      <c r="AV4" s="148"/>
+      <c r="AW4" s="148"/>
+      <c r="AX4" s="149"/>
+      <c r="AY4" s="147">
         <f>AY5</f>
         <v>45887</v>
       </c>
-      <c r="AZ4" s="143"/>
-      <c r="BA4" s="143"/>
-      <c r="BB4" s="143"/>
-      <c r="BC4" s="143"/>
-      <c r="BD4" s="143"/>
-      <c r="BE4" s="144"/>
-      <c r="BF4" s="142">
+      <c r="AZ4" s="148"/>
+      <c r="BA4" s="148"/>
+      <c r="BB4" s="148"/>
+      <c r="BC4" s="148"/>
+      <c r="BD4" s="148"/>
+      <c r="BE4" s="149"/>
+      <c r="BF4" s="147">
         <f>BF5</f>
         <v>45894</v>
       </c>
-      <c r="BG4" s="143"/>
-      <c r="BH4" s="143"/>
-      <c r="BI4" s="143"/>
-      <c r="BJ4" s="143"/>
-      <c r="BK4" s="143"/>
-      <c r="BL4" s="144"/>
-      <c r="BM4" s="134">
+      <c r="BG4" s="148"/>
+      <c r="BH4" s="148"/>
+      <c r="BI4" s="148"/>
+      <c r="BJ4" s="148"/>
+      <c r="BK4" s="148"/>
+      <c r="BL4" s="149"/>
+      <c r="BM4" s="139">
         <f>BM5</f>
         <v>45901</v>
       </c>
-      <c r="BN4" s="135"/>
-      <c r="BO4" s="135"/>
-      <c r="BP4" s="135"/>
-      <c r="BQ4" s="135"/>
-      <c r="BR4" s="135"/>
-      <c r="BS4" s="136"/>
-      <c r="BT4" s="134">
+      <c r="BN4" s="140"/>
+      <c r="BO4" s="140"/>
+      <c r="BP4" s="140"/>
+      <c r="BQ4" s="140"/>
+      <c r="BR4" s="140"/>
+      <c r="BS4" s="141"/>
+      <c r="BT4" s="139">
         <f>BT5</f>
         <v>45908</v>
       </c>
-      <c r="BU4" s="135"/>
-      <c r="BV4" s="135"/>
-      <c r="BW4" s="135"/>
-      <c r="BX4" s="135"/>
-      <c r="BY4" s="135"/>
-      <c r="BZ4" s="136"/>
-      <c r="CA4" s="134">
+      <c r="BU4" s="140"/>
+      <c r="BV4" s="140"/>
+      <c r="BW4" s="140"/>
+      <c r="BX4" s="140"/>
+      <c r="BY4" s="140"/>
+      <c r="BZ4" s="141"/>
+      <c r="CA4" s="139">
         <f>CA5</f>
         <v>45915</v>
       </c>
-      <c r="CB4" s="135"/>
-      <c r="CC4" s="135"/>
-      <c r="CD4" s="135"/>
-      <c r="CE4" s="135"/>
-      <c r="CF4" s="135"/>
-      <c r="CG4" s="136"/>
+      <c r="CB4" s="140"/>
+      <c r="CC4" s="140"/>
+      <c r="CD4" s="140"/>
+      <c r="CE4" s="140"/>
+      <c r="CF4" s="140"/>
+      <c r="CG4" s="141"/>
     </row>
     <row r="5" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
@@ -3308,7 +3308,7 @@
       <c r="A8" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="146" t="s">
+      <c r="B8" s="134" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="55">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="D8" s="10">
         <f>+(C9*D9+(C13*D13)+(C15*D15)+(C17*D17)+(C19*D19)+(C21*D21)+(C25*D25)+(C29*D29)+(C32*D32)+(C36*D36)+(C38*D38)+(C48*D48)+(C61*D61)+(C65*D65))/C8</f>
-        <v>0.34210526315789475</v>
+        <v>0.47105263157894739</v>
       </c>
       <c r="E8" s="50"/>
       <c r="F8" s="122"/>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="D9" s="44">
         <f>+IFERROR(AVERAGE(D10:D12)*1,0)</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E9" s="49">
         <f>Inicio_del_proyecto</f>
@@ -3723,7 +3723,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="59">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E12" s="60">
         <f>F11</f>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="D13" s="44">
         <f>+IFERROR(AVERAGE(D14)*1,0)</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E13" s="49">
         <f>F9+1</f>
@@ -3929,7 +3929,7 @@
         <v>3.5</v>
       </c>
       <c r="D14" s="59">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E14" s="60">
         <f>+E13+(C14/24)</f>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="D15" s="44">
         <f>+IFERROR(AVERAGE(D16)*1,0)</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E15" s="49">
         <f>F13+1</f>
@@ -4135,7 +4135,7 @@
         <v>3.5</v>
       </c>
       <c r="D16" s="59">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E16" s="60">
         <f>E15</f>
@@ -4238,7 +4238,7 @@
       </c>
       <c r="D17" s="44">
         <f>+IFERROR(AVERAGE(D18)*1,0)</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E17" s="49">
         <f>F15+1</f>
@@ -4341,7 +4341,7 @@
         <v>3.5</v>
       </c>
       <c r="D18" s="59">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E18" s="60">
         <f>E17</f>
@@ -4444,7 +4444,7 @@
       </c>
       <c r="D19" s="44">
         <f>+IFERROR(AVERAGE(D20)*1,0)</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E19" s="49">
         <f>F17+1</f>
@@ -4547,7 +4547,7 @@
         <v>3.5</v>
       </c>
       <c r="D20" s="59">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E20" s="60">
         <f>E19</f>
@@ -4650,7 +4650,7 @@
       </c>
       <c r="D21" s="44">
         <f>+IFERROR(AVERAGE(D22:D24)*1,0)</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E21" s="49">
         <f>F19+1</f>
@@ -4753,7 +4753,7 @@
         <v>1.5</v>
       </c>
       <c r="D22" s="59">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E22" s="60">
         <f>E21</f>
@@ -5062,7 +5062,7 @@
       </c>
       <c r="D25" s="44">
         <f>+IFERROR(AVERAGE(D26:D28)*1,0)</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E25" s="49">
         <f>F21+1</f>
@@ -5165,7 +5165,7 @@
         <v>1.5</v>
       </c>
       <c r="D26" s="59">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E26" s="60">
         <f>E25</f>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="D29" s="44">
         <f>+IFERROR(AVERAGE(D30:D31)*1,0)</f>
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="E29" s="49">
         <f>F25+1</f>
@@ -5577,7 +5577,7 @@
         <v>1.5</v>
       </c>
       <c r="D30" s="59">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E30" s="60">
         <f t="shared" ref="E30" si="34">E29</f>
@@ -5783,7 +5783,7 @@
       </c>
       <c r="D32" s="44">
         <f>+IFERROR(AVERAGE(D33:D35)*1,0)</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E32" s="49">
         <f>F29+1</f>
@@ -5886,7 +5886,7 @@
         <v>1.5</v>
       </c>
       <c r="D33" s="59">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E33" s="60">
         <f>E32</f>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="D36" s="44">
         <f>+IFERROR(AVERAGE(D37)*1,0)</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E36" s="49">
         <f>F32+1</f>
@@ -6298,7 +6298,7 @@
         <v>2.5</v>
       </c>
       <c r="D37" s="59">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E37" s="60">
         <f>+E36+(C37/24)</f>
@@ -6393,7 +6393,7 @@
     </row>
     <row r="38" spans="1:85" s="2" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="90"/>
-      <c r="B38" s="147" t="s">
+      <c r="B38" s="135" t="s">
         <v>72</v>
       </c>
       <c r="C38" s="56">
@@ -7425,7 +7425,7 @@
       <c r="A48" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="148" t="s">
+      <c r="B48" s="136" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="72">
@@ -8766,7 +8766,7 @@
       <c r="A61" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="149" t="s">
+      <c r="B61" s="137" t="s">
         <v>73</v>
       </c>
       <c r="C61" s="78">
@@ -9180,7 +9180,7 @@
       <c r="A65" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B65" s="150" t="s">
+      <c r="B65" s="138" t="s">
         <v>74</v>
       </c>
       <c r="C65" s="84">
@@ -10252,15 +10252,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -10278,6 +10269,15 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10302,14 +10302,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -10326,4 +10318,12 @@
     <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>